--- a/data/CD.xlsx
+++ b/data/CD.xlsx
@@ -345,7 +345,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D31"/>
+  <dimension ref="A1:G31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -371,6 +371,21 @@
       </c>
       <c r="D1" t="inlineStr">
         <is>
+          <t>Corequisites</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>Concurrent</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>Recommended</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
           <t>Terms Typically Offered</t>
         </is>
       </c>
@@ -393,6 +408,21 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
           <t>F</t>
         </is>
       </c>
@@ -415,6 +445,21 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
           <t>F, W, SP</t>
         </is>
       </c>
@@ -437,6 +482,21 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
           <t>TBD</t>
         </is>
       </c>
@@ -454,10 +514,25 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Sophomore standing; PSY 201 or PSY 202 or admission to the university with the intent to enter the MSTEP Program.</t>
+          <t>Sophomore standing; PSY 201 or PSY 202 or admission to the university with the intent to enter the MSTEP Program.</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
         <is>
           <t>TBD</t>
         </is>
@@ -476,10 +551,25 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>CD 131 and CD/PSY 256.</t>
+          <t>CD 131 and CD/PSY 256.</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
         <is>
           <t>F, W, SP</t>
         </is>
@@ -498,10 +588,25 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>PSY 201 or PSY 202.</t>
+          <t>PSY 201 or PSY 202.</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
         <is>
           <t>F, W, SP</t>
         </is>
@@ -520,10 +625,25 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>PSY 201 or PSY 202.</t>
+          <t>PSY 201 or PSY 202.</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
         <is>
           <t>F, W, SP</t>
         </is>
@@ -547,6 +667,21 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
           <t>TBD</t>
         </is>
       </c>
@@ -564,10 +699,25 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>CD 102 and CD/PSY 256. Co-requisite: Any 300-400 level CD course.</t>
+          <t>CD 102 and CD/PSY 256. Any 300-400 level CD course.</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
         <is>
           <t>F, W, SP</t>
         </is>
@@ -586,10 +736,25 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>CD/PSY 256.</t>
+          <t>CD/PSY 256.</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
         <is>
           <t>F, W, SP</t>
         </is>
@@ -608,10 +773,25 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>CD/PSY 256 or CD/EDUC 207.</t>
+          <t>CD/PSY 256 or CD/EDUC 207.</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
         <is>
           <t>F, W, SP</t>
         </is>
@@ -630,10 +810,25 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>CD/PSY 256 or CD/EDUC 207.</t>
+          <t>CD/PSY 256 or CD/EDUC 207.</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
         <is>
           <t>F, W, SP</t>
         </is>
@@ -652,10 +847,25 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>PSY 256, STAT 217.</t>
+          <t>PSY 256, STAT 217.</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
         <is>
           <t>F, W, SP</t>
         </is>
@@ -674,10 +884,25 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>CD/EDUC 207 or PSY 256.</t>
+          <t>CD/EDUC 207 or PSY 256.</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
         <is>
           <t>F, W, SP</t>
         </is>
@@ -696,10 +921,25 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>CD/PSY 256 or CD/EDUC 207.</t>
+          <t>CD/PSY 256 or CD/EDUC 207.</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
         <is>
           <t>F, W, SP</t>
         </is>
@@ -718,10 +958,25 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>PSY 201 or PSY 202; CD/PSY 256 or CD 305; and junior standing.</t>
+          <t>PSY 201 or PSY 202; CD/PSY 256 or CD 305; and junior standing.</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
         <is>
           <t>SP</t>
         </is>
@@ -745,6 +1000,21 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
           <t>TBD</t>
         </is>
       </c>
@@ -762,10 +1032,25 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>CD 329; and two of the following: CD 304, 305, or CD 306.</t>
+          <t>CD 329; and two of the CD 304, 305, or CD 306.</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
         <is>
           <t>F, W, SP</t>
         </is>
@@ -784,10 +1069,25 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>CD 304, CD 305 or CD 306; or CD/PSY 256 and PSY 305.</t>
+          <t>CD 304, CD 305 or CD 306; or CD/PSY 256 and PSY 305.</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
         <is>
           <t>F, W, SP</t>
         </is>
@@ -806,10 +1106,25 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Two of the following: CD 304, CD 305, CD 306; junior standing or consent of instructor.</t>
+          <t>Two of the CD 304, CD 305, CD 306; junior standing or consent of instructor.</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
         <is>
           <t>F, W, SP</t>
         </is>
@@ -828,10 +1143,25 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>CD 304 or CD 305 or PSY 419 or PSY 420 or PSY 421; and CD 329 or PSY 329.</t>
+          <t>CD 304 or CD 305 or PSY 419 or PSY 420 or PSY 421; and CD 329 or PSY 329.</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
         <is>
           <t>F, W</t>
         </is>
@@ -850,10 +1180,25 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>CD 230 and CD 329.</t>
+          <t>CD 230 and CD 329.</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
         <is>
           <t>F, W, SP</t>
         </is>
@@ -872,10 +1217,25 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>CD 333 or CD 448.</t>
+          <t>CD 333 or CD 448.</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
         <is>
           <t>F, W, SP</t>
         </is>
@@ -894,10 +1254,25 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>CD 304, CD 305, CD 306, CD 329 and senior standing.</t>
+          <t>CD 304, CD 305, CD 306, CD 329 and senior standing.</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
         <is>
           <t>W, SP</t>
         </is>
@@ -916,10 +1291,25 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Psychology and Child Development majors only; CD 230, PSY 323, junior standing and consent of instructor.</t>
+          <t>Psychology and Child Development majors only; CD 230, PSY 323, junior standing and consent of instructor.</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
         <is>
           <t>F, W, SP</t>
         </is>
@@ -938,10 +1328,25 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>CD 330 or CD 453; and consent of instructor; Psychology and Child Development majors only.</t>
+          <t>CD 330 or CD 453; and consent of instructor; Psychology and Child Development majors only.</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
         <is>
           <t>F, W, SP</t>
         </is>
@@ -960,10 +1365,25 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>PSY 201 or PSY 202 and junior standing.</t>
+          <t>PSY 201 or PSY 202 and junior standing.</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
         <is>
           <t>F, W, SP</t>
         </is>
@@ -982,10 +1402,25 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Completion of GWR and CD 329; Psychology and Child Development majors only.</t>
+          <t>Completion of GWR and CD 329; Psychology and Child Development majors only.</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
         <is>
           <t>F, W</t>
         </is>
@@ -1004,10 +1439,25 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>CD 461.</t>
+          <t>CD 461.</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
         <is>
           <t>F, W, SP</t>
         </is>
@@ -1030,6 +1480,21 @@
         </is>
       </c>
       <c r="D31" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
         <is>
           <t>TBD</t>
         </is>
